--- a/问题2-预测结果.xlsx
+++ b/问题2-预测结果.xlsx
@@ -466,16 +466,16 @@
         <v>44652</v>
       </c>
       <c r="B2" t="n">
-        <v>13.65</v>
+        <v>12.92</v>
       </c>
       <c r="C2" t="n">
-        <v>36.84</v>
+        <v>39.04</v>
       </c>
       <c r="D2" t="n">
-        <v>36.74</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
-        <v>165.86</v>
+        <v>167.07</v>
       </c>
     </row>
     <row r="3">
@@ -483,16 +483,16 @@
         <v>44682</v>
       </c>
       <c r="B3" t="n">
-        <v>12.09</v>
+        <v>13.13</v>
       </c>
       <c r="C3" t="n">
-        <v>33.76</v>
+        <v>38.99</v>
       </c>
       <c r="D3" t="n">
-        <v>41.19</v>
+        <v>48.87</v>
       </c>
       <c r="E3" t="n">
-        <v>166.42</v>
+        <v>166.54</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         <v>44713</v>
       </c>
       <c r="B4" t="n">
-        <v>12.02</v>
+        <v>12.91</v>
       </c>
       <c r="C4" t="n">
-        <v>34.24</v>
+        <v>38.6</v>
       </c>
       <c r="D4" t="n">
-        <v>43.53</v>
+        <v>48.45</v>
       </c>
       <c r="E4" t="n">
-        <v>166.73</v>
+        <v>166.47</v>
       </c>
     </row>
     <row r="5">
@@ -517,16 +517,16 @@
         <v>44743</v>
       </c>
       <c r="B5" t="n">
-        <v>12.07</v>
+        <v>12.82</v>
       </c>
       <c r="C5" t="n">
-        <v>34.82</v>
+        <v>38.33</v>
       </c>
       <c r="D5" t="n">
-        <v>44.54</v>
+        <v>48.24</v>
       </c>
       <c r="E5" t="n">
-        <v>166.85</v>
+        <v>166.42</v>
       </c>
     </row>
     <row r="6">
@@ -534,16 +534,16 @@
         <v>44774</v>
       </c>
       <c r="B6" t="n">
-        <v>12.52</v>
+        <v>12.77</v>
       </c>
       <c r="C6" t="n">
-        <v>36.33</v>
+        <v>38.16</v>
       </c>
       <c r="D6" t="n">
-        <v>45.29</v>
+        <v>48.13</v>
       </c>
       <c r="E6" t="n">
-        <v>166.96</v>
+        <v>166.39</v>
       </c>
     </row>
     <row r="7">
@@ -551,16 +551,16 @@
         <v>44805</v>
       </c>
       <c r="B7" t="n">
-        <v>13.2</v>
+        <v>12.74</v>
       </c>
       <c r="C7" t="n">
-        <v>38.38</v>
+        <v>38.07</v>
       </c>
       <c r="D7" t="n">
-        <v>45.69</v>
+        <v>48.06</v>
       </c>
       <c r="E7" t="n">
-        <v>167.05</v>
+        <v>166.37</v>
       </c>
     </row>
     <row r="8">
@@ -568,16 +568,16 @@
         <v>44835</v>
       </c>
       <c r="B8" t="n">
-        <v>13.39</v>
+        <v>12.72</v>
       </c>
       <c r="C8" t="n">
-        <v>39.09</v>
+        <v>38.01</v>
       </c>
       <c r="D8" t="n">
-        <v>46.16</v>
+        <v>48.01</v>
       </c>
       <c r="E8" t="n">
-        <v>167.12</v>
+        <v>166.36</v>
       </c>
     </row>
     <row r="9">
@@ -585,16 +585,16 @@
         <v>44866</v>
       </c>
       <c r="B9" t="n">
-        <v>13.37</v>
+        <v>12.71</v>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>37.98</v>
       </c>
       <c r="D9" t="n">
-        <v>47.68</v>
+        <v>47.99</v>
       </c>
       <c r="E9" t="n">
-        <v>167.28</v>
+        <v>166.35</v>
       </c>
     </row>
     <row r="10">
@@ -602,16 +602,16 @@
         <v>44896</v>
       </c>
       <c r="B10" t="n">
-        <v>13.6</v>
+        <v>12.7</v>
       </c>
       <c r="C10" t="n">
-        <v>39.44</v>
+        <v>37.96</v>
       </c>
       <c r="D10" t="n">
-        <v>48.32</v>
+        <v>47.98</v>
       </c>
       <c r="E10" t="n">
-        <v>167.37</v>
+        <v>166.35</v>
       </c>
     </row>
     <row r="11">
@@ -619,16 +619,16 @@
         <v>44927</v>
       </c>
       <c r="B11" t="n">
-        <v>13.8</v>
+        <v>12.7</v>
       </c>
       <c r="C11" t="n">
-        <v>39.89</v>
+        <v>37.95</v>
       </c>
       <c r="D11" t="n">
-        <v>48.74</v>
+        <v>47.97</v>
       </c>
       <c r="E11" t="n">
-        <v>167.45</v>
+        <v>166.35</v>
       </c>
     </row>
     <row r="12">
@@ -636,16 +636,16 @@
         <v>44958</v>
       </c>
       <c r="B12" t="n">
-        <v>13.99</v>
+        <v>12.7</v>
       </c>
       <c r="C12" t="n">
-        <v>40.32</v>
+        <v>37.94</v>
       </c>
       <c r="D12" t="n">
-        <v>48.97</v>
+        <v>47.96</v>
       </c>
       <c r="E12" t="n">
-        <v>167.5</v>
+        <v>166.34</v>
       </c>
     </row>
     <row r="13">
@@ -653,16 +653,16 @@
         <v>44986</v>
       </c>
       <c r="B13" t="n">
-        <v>14.11</v>
+        <v>12.7</v>
       </c>
       <c r="C13" t="n">
-        <v>40.62</v>
+        <v>37.94</v>
       </c>
       <c r="D13" t="n">
-        <v>49.19</v>
+        <v>47.96</v>
       </c>
       <c r="E13" t="n">
-        <v>167.55</v>
+        <v>166.34</v>
       </c>
     </row>
     <row r="14">
@@ -670,16 +670,16 @@
         <v>45017</v>
       </c>
       <c r="B14" t="n">
-        <v>14.15</v>
+        <v>12.7</v>
       </c>
       <c r="C14" t="n">
-        <v>40.7</v>
+        <v>37.94</v>
       </c>
       <c r="D14" t="n">
-        <v>49.55</v>
+        <v>47.96</v>
       </c>
       <c r="E14" t="n">
-        <v>167.61</v>
+        <v>166.34</v>
       </c>
     </row>
     <row r="15">
@@ -687,16 +687,16 @@
         <v>45047</v>
       </c>
       <c r="B15" t="n">
-        <v>14.17</v>
+        <v>12.7</v>
       </c>
       <c r="C15" t="n">
-        <v>40.73</v>
+        <v>37.94</v>
       </c>
       <c r="D15" t="n">
-        <v>49.88</v>
+        <v>47.96</v>
       </c>
       <c r="E15" t="n">
-        <v>167.65</v>
+        <v>166.34</v>
       </c>
     </row>
     <row r="16">
@@ -704,16 +704,16 @@
         <v>45078</v>
       </c>
       <c r="B16" t="n">
-        <v>14.23</v>
+        <v>12.7</v>
       </c>
       <c r="C16" t="n">
-        <v>40.87</v>
+        <v>37.93</v>
       </c>
       <c r="D16" t="n">
-        <v>49.95</v>
+        <v>47.96</v>
       </c>
       <c r="E16" t="n">
-        <v>167.67</v>
+        <v>166.34</v>
       </c>
     </row>
     <row r="17">
@@ -721,16 +721,16 @@
         <v>45108</v>
       </c>
       <c r="B17" t="n">
-        <v>14.28</v>
+        <v>12.7</v>
       </c>
       <c r="C17" t="n">
-        <v>40.98</v>
+        <v>37.93</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>47.96</v>
       </c>
       <c r="E17" t="n">
-        <v>167.68</v>
+        <v>166.34</v>
       </c>
     </row>
     <row r="18">
@@ -738,16 +738,16 @@
         <v>45139</v>
       </c>
       <c r="B18" t="n">
-        <v>14.31</v>
+        <v>12.7</v>
       </c>
       <c r="C18" t="n">
-        <v>41.07</v>
+        <v>37.93</v>
       </c>
       <c r="D18" t="n">
-        <v>50.03</v>
+        <v>47.96</v>
       </c>
       <c r="E18" t="n">
-        <v>167.69</v>
+        <v>166.34</v>
       </c>
     </row>
     <row r="19">
@@ -755,16 +755,16 @@
         <v>45170</v>
       </c>
       <c r="B19" t="n">
-        <v>14.33</v>
+        <v>12.7</v>
       </c>
       <c r="C19" t="n">
-        <v>41.11</v>
+        <v>37.93</v>
       </c>
       <c r="D19" t="n">
-        <v>50.1</v>
+        <v>47.96</v>
       </c>
       <c r="E19" t="n">
-        <v>167.7</v>
+        <v>166.34</v>
       </c>
     </row>
     <row r="20">
@@ -772,16 +772,16 @@
         <v>45200</v>
       </c>
       <c r="B20" t="n">
-        <v>14.33</v>
+        <v>12.7</v>
       </c>
       <c r="C20" t="n">
-        <v>41.12</v>
+        <v>37.93</v>
       </c>
       <c r="D20" t="n">
-        <v>50.19</v>
+        <v>47.96</v>
       </c>
       <c r="E20" t="n">
-        <v>167.71</v>
+        <v>166.34</v>
       </c>
     </row>
     <row r="21">
@@ -789,16 +789,16 @@
         <v>45231</v>
       </c>
       <c r="B21" t="n">
-        <v>14.34</v>
+        <v>12.7</v>
       </c>
       <c r="C21" t="n">
-        <v>41.14</v>
+        <v>37.93</v>
       </c>
       <c r="D21" t="n">
-        <v>50.22</v>
+        <v>47.96</v>
       </c>
       <c r="E21" t="n">
-        <v>167.72</v>
+        <v>166.34</v>
       </c>
     </row>
     <row r="22">
@@ -806,16 +806,16 @@
         <v>45261</v>
       </c>
       <c r="B22" t="n">
-        <v>14.35</v>
+        <v>12.7</v>
       </c>
       <c r="C22" t="n">
-        <v>41.17</v>
+        <v>37.93</v>
       </c>
       <c r="D22" t="n">
-        <v>50.22</v>
+        <v>47.95</v>
       </c>
       <c r="E22" t="n">
-        <v>167.72</v>
+        <v>166.34</v>
       </c>
     </row>
   </sheetData>
